--- a/Item 1/CostesDP.xlsx
+++ b/Item 1/CostesDP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -375,7 +375,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>40.01</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -429,7 +429,7 @@
       </c>
       <c r="G2">
         <f>B2*F2+((100*(B2+E2)/5760)*C2)+D2</f>
-        <v>1360.8333333333335</v>
+        <v>1754.8380555555555</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>800</v>
@@ -453,7 +453,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="0">B3*F3+((100*(B3+E3)/5760)*C3)+D3</f>
-        <v>1016.6666666666667</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C4">
         <v>850</v>
@@ -477,7 +477,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1042.7083333333335</v>
+        <v>2037.6986111111109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>42.75</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -501,7 +501,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1120.8333333333335</v>
+        <v>1520.6875</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>55.95</v>
       </c>
       <c r="C6">
         <v>1200</v>
@@ -525,7 +525,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>2128.9250000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>42.5</v>
       </c>
       <c r="C7">
         <v>1400</v>
@@ -549,7 +549,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1329.1666666666667</v>
+        <v>1807.9861111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Item 1/CostesDP.xlsx
+++ b/Item 1/CostesDP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Jose Gavira</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Coste Pc Amortizado</t>
+  </si>
+  <si>
+    <t>Coste Horas Totales</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,9 +392,11 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -407,8 +415,14 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -419,7 +433,7 @@
         <v>1000</v>
       </c>
       <c r="D2">
-        <v>180</v>
+        <v>151.44</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -428,11 +442,19 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <f>B2*F2+((100*(B2+E2)/5760)*C2)+D2</f>
-        <v>1754.8380555555555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>B2*F2+(((B2+E2)/5760)*C2)+D2</f>
+        <v>1038.6061805555555</v>
+      </c>
+      <c r="H2">
+        <f>((B2)/5760)*C2</f>
+        <v>6.9461805555555554</v>
+      </c>
+      <c r="I2">
+        <f>B2*F2</f>
+        <v>880.21999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -443,7 +465,7 @@
         <v>800</v>
       </c>
       <c r="D3">
-        <v>180</v>
+        <v>151.44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -452,11 +474,19 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="0">B3*F3+((100*(B3+E3)/5760)*C3)+D3</f>
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G7" si="0">B3*F3+(((B3+E3)/5760)*C3)+D3</f>
+        <v>1042.19</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="1">((B3)/5760)*C3</f>
+        <v>8.75</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="2">B3*F3</f>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -467,7 +497,7 @@
         <v>850</v>
       </c>
       <c r="D4">
-        <v>180</v>
+        <v>151.44</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -477,10 +507,18 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2037.6986111111109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1065.372986111111</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>9.5329861111111107</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>904.39999999999986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -488,10 +526,10 @@
         <v>42.75</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>151.44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -501,10 +539,18 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1520.6875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>755.50640625000005</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>5.56640625</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>598.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -515,7 +561,7 @@
         <v>1200</v>
       </c>
       <c r="D6">
-        <v>180</v>
+        <v>151.44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -525,21 +571,29 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>2128.9250000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>946.39625000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>11.65625</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>783.30000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>42.5</v>
+        <v>40.5</v>
       </c>
       <c r="C7">
         <v>1400</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>151.44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -549,7 +603,37 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1807.9861111111111</v>
+        <v>728.28375000000005</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>9.84375</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>306.81</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>908.6400000000001</v>
+      </c>
+      <c r="G8">
+        <f>SUM(G2:G7)</f>
+        <v>5576.3555729166674</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:I8" si="3">SUM(H2:H7)</f>
+        <v>52.295572916666664</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>4615.42</v>
       </c>
     </row>
   </sheetData>
